--- a/variation_study_summary.xlsx
+++ b/variation_study_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,16 +473,16 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.55</v>
+        <v>0.16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="E2" t="n">
-        <v>5.91</v>
+        <v>5.1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -493,16 +493,16 @@
         <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.37</v>
+        <v>-0.14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="E3" t="n">
-        <v>5.99</v>
+        <v>5.54</v>
       </c>
       <c r="F3" t="n">
-        <v>0.24</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="4">
@@ -513,36 +513,36 @@
         <v>0.3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="E4" t="n">
-        <v>5.06</v>
+        <v>4.59</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.95</v>
+        <v>-0.93</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
       <c r="E5" t="n">
-        <v>6.41</v>
+        <v>3.02</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>250</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.98</v>
+        <v>0.51</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
       <c r="E6" t="n">
-        <v>7.41</v>
+        <v>5.98</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>250</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
       <c r="D7" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="E7" t="n">
-        <v>7.43</v>
+        <v>6.53</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="8">
@@ -590,39 +590,39 @@
         <v>250</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="D8" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="E8" t="n">
-        <v>6.27</v>
+        <v>6.61</v>
       </c>
       <c r="F8" t="n">
-        <v>0.41</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C9" t="n">
-        <v>1.4</v>
+        <v>-0.11</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="E9" t="n">
-        <v>7.06</v>
+        <v>5.77</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>500</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="E10" t="n">
-        <v>9.1</v>
+        <v>6.99</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>500</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C11" t="n">
-        <v>2.27</v>
+        <v>1.45</v>
       </c>
       <c r="D11" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="E11" t="n">
-        <v>11.14</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>1.76</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="12">
@@ -670,39 +670,39 @@
         <v>500</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C12" t="n">
-        <v>2.01</v>
+        <v>1.51</v>
       </c>
       <c r="D12" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="E12" t="n">
-        <v>12.28</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C13" t="n">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="E13" t="n">
-        <v>7.05</v>
+        <v>11.35</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>1000</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C14" t="n">
-        <v>2.55</v>
+        <v>1.22</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E14" t="n">
-        <v>10.07</v>
+        <v>7.1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>1000</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C15" t="n">
-        <v>2.78</v>
+        <v>1.6</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="E15" t="n">
-        <v>11.08</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,39 @@
         <v>1000</v>
       </c>
       <c r="B16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B17" t="n">
         <v>0.4</v>
       </c>
-      <c r="C16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.01</v>
       </c>
     </row>
   </sheetData>
